--- a/Assets/Scripts/ExcelImporter/Example/Excels/CharacterDataExcel.xlsx
+++ b/Assets/Scripts/ExcelImporter/Example/Excels/CharacterDataExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameJam\Temperature\Assets\Scripts\ExcelImporter\Example\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E465F17B-7715-4A02-83E2-24973597F9F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9000D-4133-4239-B617-D94179F0DD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,31 +33,44 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>mp</t>
+  </si>
+  <si>
+    <t>atk</t>
+  </si>
+  <si>
+    <t>def</t>
+  </si>
+  <si>
+    <t>Rosmarinus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>character_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>character_2</t>
+    <t>Einstein</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>character_3</t>
+    <t>resist_Hot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>atk</t>
+    <t>resist_Cold</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>hp</t>
+    <t>intelligence</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -108,24 +121,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -508,83 +509,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
-    <col min="1" max="6" width="12.375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="3" customWidth="1"/>
-    <col min="8" max="1024" width="12.375" style="4" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
+    <col min="3" max="6" width="12.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="1024" width="12.375" style="2" customWidth="1"/>
+    <col min="1025" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="6" customFormat="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>100</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2">
+        <v>30</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
+      <c r="C3" s="2">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2">
+        <v>40</v>
+      </c>
+      <c r="E3" s="2">
+        <v>30</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-      <c r="D2" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="4">
-        <v>200</v>
-      </c>
-      <c r="D3" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="4">
-        <v>300</v>
-      </c>
-      <c r="D4" s="4">
-        <v>30</v>
-      </c>
+    <row r="4" spans="1:9">
+      <c r="G4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E12" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E8 E1:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Red,Green,Blue"</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/Assets/Scripts/ExcelImporter/Example/Excels/CharacterDataExcel.xlsx
+++ b/Assets/Scripts/ExcelImporter/Example/Excels/CharacterDataExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameJam\Temperature\Assets\Scripts\ExcelImporter\Example\Excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF9000D-4133-4239-B617-D94179F0DD28}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605177E-1BC6-49B3-9F1F-143CE5E2EDD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2310" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Entities" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -44,24 +44,13 @@
     <t>mp</t>
   </si>
   <si>
-    <t>atk</t>
-  </si>
-  <si>
     <t>def</t>
-  </si>
-  <si>
-    <t>Rosmarinus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>name</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Einstein</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>resist_Hot</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -72,13 +61,53 @@
   <si>
     <t>intelligence</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Einstein</t>
+  </si>
+  <si>
+    <t>Rosmarinus</t>
+  </si>
+  <si>
+    <t>DrGee</t>
+  </si>
+  <si>
+    <t>Joro</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>dex</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_Range</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>attack_Speed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jerry</t>
+  </si>
+  <si>
+    <t>Youki</t>
+  </si>
+  <si>
+    <t>Summer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -99,6 +128,12 @@
       <name val="돋움"/>
       <family val="3"/>
       <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,12 +156,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -509,120 +559,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25"/>
   <cols>
     <col min="1" max="1" width="12.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.375" style="2" customWidth="1"/>
-    <col min="3" max="6" width="12.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="1024" width="12.375" style="2" customWidth="1"/>
-    <col min="1025" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="1023" width="12.375" style="2" customWidth="1"/>
+    <col min="1024" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:12">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="K1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3">
+        <v>100</v>
+      </c>
+      <c r="D2" s="3">
+        <v>40</v>
+      </c>
+      <c r="E2" s="3">
+        <v>30</v>
+      </c>
+      <c r="F2" s="3">
+        <v>10</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3">
+        <v>100</v>
+      </c>
+      <c r="D3" s="3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="3">
+        <v>30</v>
+      </c>
+      <c r="F3" s="3">
+        <v>10</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="3">
+        <v>5</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="3">
+        <v>100</v>
+      </c>
+      <c r="D4" s="3">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>5</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>100</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="3">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G5" s="3">
+        <v>5</v>
+      </c>
+      <c r="H5" s="3">
+        <v>5</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>3</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3">
+        <v>100</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>30</v>
+      </c>
+      <c r="F6" s="3">
+        <v>10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <v>5</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3">
+        <v>100</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7" s="3">
+        <v>30</v>
+      </c>
+      <c r="F7" s="3">
+        <v>10</v>
+      </c>
+      <c r="G7" s="3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <v>5</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3">
+        <v>30</v>
+      </c>
+      <c r="F8" s="3">
+        <v>10</v>
+      </c>
+      <c r="G8" s="3">
+        <v>5</v>
+      </c>
+      <c r="H8" s="3">
+        <v>5</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3">
         <v>100</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D9" s="3">
         <v>40</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E9" s="3">
         <v>30</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F9" s="3">
         <v>10</v>
       </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2">
-        <v>100</v>
-      </c>
-      <c r="D3" s="2">
-        <v>40</v>
-      </c>
-      <c r="E3" s="2">
-        <v>30</v>
-      </c>
-      <c r="F3" s="2">
-        <v>10</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="G4" s="2"/>
+      <c r="G9" s="3">
+        <v>5</v>
+      </c>
+      <c r="H9" s="3">
+        <v>5</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="5"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="5"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="5"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E8 E1:E3" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>"Red,Green,Blue"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
